--- a/CodeSystem-be-cs-medication-summary-types.xlsx
+++ b/CodeSystem-be-cs-medication-summary-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T15:29:20+00:00</t>
+    <t>2022-01-28T15:30:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-medication-summary-types.xlsx
+++ b/CodeSystem-be-cs-medication-summary-types.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T15:30:41+00:00</t>
+    <t>2022-04-25T09:14:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -117,7 +117,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>2</t>
+    <t>4</t>
   </si>
   <si>
     <t>Level</t>
@@ -145,6 +145,18 @@
   </si>
   <si>
     <t>Belgian Medication Schema v5.5 - 12-2017</t>
+  </si>
+  <si>
+    <t>Scheduled</t>
+  </si>
+  <si>
+    <t>Scheduled Takes View</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Summary view for a physician</t>
   </si>
 </sst>
 </file>
@@ -453,7 +465,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -497,6 +509,30 @@
       </c>
       <c r="D3" s="2"/>
     </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CodeSystem-be-cs-medication-summary-types.xlsx
+++ b/CodeSystem-be-cs-medication-summary-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-25T09:14:05+00:00</t>
+    <t>2022-05-27T14:43:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-medication-summary-types.xlsx
+++ b/CodeSystem-be-cs-medication-summary-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-27T14:43:08+00:00</t>
+    <t>2022-05-27T16:28:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-cs-medication-summary-types.xlsx
+++ b/CodeSystem-be-cs-medication-summary-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-27T16:28:46+00:00</t>
+    <t>2022-05-29T07:59:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
